--- a/tabular/eve/Updated-DIGS.xlsx
+++ b/tabular/eve/Updated-DIGS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C84DB4-9CFF-0040-A561-06C8EEFF0468}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1BC156-AA5D-7A42-AD48-CF2FB73E8FD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{ECCBA94C-0219-3C40-A797-A708CEF05896}"/>
   </bookViews>
